--- a/data/trans_bre/P12B-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12B-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30,64%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-1,33%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-8,85%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-7,26%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1505215816428207</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.227941480517345</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1842808190434461</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3144017641240601</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.024800341535627</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.94194584115391</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.01674832468383112</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2949961165461408</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.02166191010862614</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.02884550700597565</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.08854329237205365</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.06906247972994634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 3,36</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 5,39</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 2,51</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 3,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 2,44</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 3,03</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-36,42; 46,43</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-14,24; 93,79</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-37,53; 36,67</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-32,13; 41,88</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-34,99; 25,0</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-32,89; 25,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.025067678399394</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.661540944973235</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.70194650816478</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.026898640304587</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.735559336767266</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.204607026493241</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.349519754739235</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1586134189107077</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3811946498443986</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3183561783694576</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.3498530676836031</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3303712734808832</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.620846041255946</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.307895564094836</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.470331091056893</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.076891514377477</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.440351825494979</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.976254740631799</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4986610466506556</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9356361904107842</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3719802018356478</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.4384521993243906</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.2500366519726283</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.2577242830457595</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,01</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-3,99</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>44,67%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>33,39%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>59,59%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>79,25%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>48,87%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-44,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 7,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 5,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 8,85</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 12,54</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 13,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,29; 1,29</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-19,09; 140,56</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-12,83; 106,39</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 146,68</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>10,72; 205,03</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-19,74; 186,59</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-76,66; 28,37</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.986200340558393</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.48058114910143</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.089091743315755</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.735674726621849</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.727843001788103</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-4.057456809505931</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2511166277240038</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3895101274388091</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5636353844306851</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.7618692958241254</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.4887256402980593</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.4480265328011185</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,72</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,64%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-21,4%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>76,74%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-45,66%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.00109353042999</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.7062018813064717</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.532363717781116</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.9240939726951934</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.867756387759673</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-9.427393157809165</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3062951105132206</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1002959441092384</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.03337619041224557</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.08581427582743646</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1974078075545123</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.7723375544954765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 10,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,8; 5,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 13,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,04; 3,05</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-44,65; 174,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-64,88; 49,49</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-10,11; 268,59</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-88,75; 36,37</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.163650669899644</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.585312737532441</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.376205826640023</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.3535105877638</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>13.24956772932602</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.154172598190752</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.128976043044668</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.136211765178858</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.405473653235603</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.824408088765739</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.86592236595212</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.2474849643488616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,43</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,72%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>29,62%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>15,64%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-12,57%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.129337789052624</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.232275345247789</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.459373142364259</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.988026654302486</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1097274310546031</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1514369618861216</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7860408397200939</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4699546820774513</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 3,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 3,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 4,66</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 4,98</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 3,18</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-5,13; 1,6</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-14,05; 54,42</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-9,98; 56,21</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 67,89</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-13,81; 58,47</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-22,55; 33,83</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-35,35; 14,54</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.412024931101472</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.84491776595298</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7960039337658705</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-27.84869421081853</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5485107443723856</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6115124984451031</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1041745592051235</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8910900886690184</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.759681400013761</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.643447035464908</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.65040658628077</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.795894824727459</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.526740791870605</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.618112566791296</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.686285680024535</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.36218911251332</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.9739300054773997</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.775183174489245</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.233889230536065</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.485732886243772</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2633179151089779</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-1.55952609225023</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1117368379570121</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2229981715569784</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2802477523465414</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1445409128292079</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.02368225299247916</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.1244892199816971</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.948143589892135</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.694064129100779</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3474725636458905</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.63141803804958</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.891897937945346</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-5.003260892967345</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1856750904731573</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.07590287880351521</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.04710634384457594</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1377667732568228</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2255416251737474</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3555439654069534</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.367705306605848</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.994670672213164</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.463936143296561</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.865367776911134</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.178920685810126</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.586651677377517</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4750731185370075</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5967067737473536</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6569802261593383</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5888422671604179</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.3383361903700858</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1468423948016564</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
